--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_5_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_5_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.23000000000035</v>
+        <v>24.52000000000039</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00079446798763394</v>
+        <v>0.003271645639655651</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00079446798763394</v>
+        <v>0.003271645639655651</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>33.82794276972003</v>
+        <v>33.91096624637186</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[13.412837584125619, 54.243047955314445]</t>
+          <t>[9.609046072250592, 58.21288642049312]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.00170392297085975</v>
+        <v>0.007298385146067288</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00170392297085975</v>
+        <v>0.007298385146067288</v>
       </c>
       <c r="P2" t="n">
-        <v>1.742184514603348</v>
+        <v>1.930868758062195</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0000264903318854, 2.4843425388748113]</t>
+          <t>[1.1258159859711174, 2.7359215301532736]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.262054102741828e-05</v>
+        <v>1.612908213211028e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>2.262054102741828e-05</v>
+        <v>1.612908213211028e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>56.68547400490109</v>
+        <v>60.8340263767934</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.879618949123966, 68.49132906067821]</t>
+          <t>[47.33241723379291, 74.33563551979388]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.469047106184007e-12</v>
+        <v>9.934719713555751e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.469047106184007e-12</v>
+        <v>9.934719713555751e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>17.51157157157182</v>
+        <v>16.9848248248251</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.64956956956978</v>
+        <v>13.84312312312334</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.37357357357387</v>
+        <v>20.12652652652685</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.23000000000035</v>
+        <v>24.52000000000039</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>8.947101671763491e-07</v>
+        <v>0.0829769936535627</v>
       </c>
       <c r="I3" t="n">
-        <v>8.947101671763491e-07</v>
+        <v>0.0829769936535627</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>44.31706035781944</v>
+        <v>22.46019990409045</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[26.967205455527782, 61.66691526011109]</t>
+          <t>[-2.5524000874657204, 47.472799895646624]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5.674276803979694e-06</v>
+        <v>0.07720176756502761</v>
       </c>
       <c r="O3" t="n">
-        <v>5.674276803979694e-06</v>
+        <v>0.07720176756502761</v>
       </c>
       <c r="P3" t="n">
-        <v>1.389973926813502</v>
+        <v>1.213868632918579</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9371317425122703, 1.8428161111147334]</t>
+          <t>[-0.5220264069028087, 2.949763672739966]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.674300382781269e-07</v>
+        <v>0.1658807867106151</v>
       </c>
       <c r="S3" t="n">
-        <v>1.674300382781269e-07</v>
+        <v>0.1658807867106151</v>
       </c>
       <c r="T3" t="n">
-        <v>50.59462057876523</v>
+        <v>51.3528062060455</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[40.39757204338639, 60.79166911414407]</t>
+          <t>[37.34005982141889, 65.36555259067211]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.309086503757499e-13</v>
+        <v>2.782642338772234e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>5.309086503757499e-13</v>
+        <v>2.782642338772234e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>18.86980980981008</v>
+        <v>19.78290290290322</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.12350350350375</v>
+        <v>13.00860860860882</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.61611611611642</v>
+        <v>26.55719719719762</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.23000000000035</v>
+        <v>24.52000000000039</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008640320936637025</v>
+        <v>0.0007220354159166442</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0008640320936637025</v>
+        <v>0.0007220354159166442</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>39.39174998459939</v>
+        <v>36.14973373100764</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[14.957324128766743, 63.82617584043203]</t>
+          <t>[14.941614835753278, 57.35785262626201]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.002206170139609887</v>
+        <v>0.001291324745615219</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002206170139609887</v>
+        <v>0.001291324745615219</v>
       </c>
       <c r="P4" t="n">
-        <v>1.251605481610348</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.5346053564667317, 1.9686056067539637]</t>
+          <t>[0.9245527929483481, 2.383710942363426]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.001013073283768762</v>
+        <v>3.83627502835715e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001013073283768762</v>
+        <v>3.83627502835715e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>56.04804940065873</v>
+        <v>50.22219111741292</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.226936573292335, 69.86916222802512]</t>
+          <t>[37.636941224094684, 62.807441010731154]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.967641605205017e-10</v>
+        <v>3.041229490463593e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>1.967641605205017e-10</v>
+        <v>3.041229490463593e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>19.40340340340368</v>
+        <v>18.06478478478508</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.63841841841866</v>
+        <v>15.21761761761787</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.16838838838871</v>
+        <v>20.91195195195229</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.23000000000035</v>
+        <v>24.52000000000039</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01280969026866308</v>
+        <v>0.0001440589171056716</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01280969026866308</v>
+        <v>0.0001440589171056716</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>27.51701422416715</v>
+        <v>32.82819478054456</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[5.368813585629368, 49.66521486270493]</t>
+          <t>[16.369033609963687, 49.28735595112543]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.01603933293464355</v>
+        <v>0.0002211195203800642</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01603933293464355</v>
+        <v>0.0002211195203800642</v>
       </c>
       <c r="P5" t="n">
-        <v>1.289342330302118</v>
+        <v>1.490605523324888</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.22013161736865516, 2.35855304323558]</t>
+          <t>[0.8616580451287321, 2.1195530015210435]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.019208170414035</v>
+        <v>1.948270263896212e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.019208170414035</v>
+        <v>1.948270263896212e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>50.15959019049108</v>
+        <v>48.69313292406821</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[37.48720613271581, 62.83197424826635]</t>
+          <t>[38.54950342509153, 58.83676242304489]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.783908741894493e-10</v>
+        <v>1.479261158010559e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>3.783908741894493e-10</v>
+        <v>1.479261158010559e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>19.25787787787815</v>
+        <v>18.70294294294324</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.13465465465487</v>
+        <v>16.24848848848874</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.38110110110144</v>
+        <v>21.15739739739774</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.23000000000035</v>
+        <v>24.52000000000039</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0005567420207284179</v>
+        <v>0.001557963716543709</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0005567420207284179</v>
+        <v>0.001557963716543709</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>42.89957315831006</v>
+        <v>35.28436565853604</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[16.117080194691653, 69.68206612192846]</t>
+          <t>[14.06973969464137, 56.49899162243071]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.002340689960001585</v>
+        <v>0.001643691198952579</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002340689960001585</v>
+        <v>0.001643691198952579</v>
       </c>
       <c r="P6" t="n">
-        <v>1.113237036407194</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.4465527095192705, 1.7799213632951183]</t>
+          <t>[0.710710650361654, 2.371131992799504]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.001581820542645662</v>
+        <v>0.0005210500469976509</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001581820542645662</v>
+        <v>0.0005210500469976509</v>
       </c>
       <c r="T6" t="n">
-        <v>67.25685747381394</v>
+        <v>59.82908788516779</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[52.745326845682555, 81.76838810194532]</t>
+          <t>[46.70691344009893, 72.95126233023666]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.29323243622548e-12</v>
+        <v>7.000178214866537e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>4.29323243622548e-12</v>
+        <v>7.000178214866537e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>19.93699699699728</v>
+        <v>18.50658658658688</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.36604604604629</v>
+        <v>15.26670670670695</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.50794794794827</v>
+        <v>21.74646646646682</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.23000000000035</v>
+        <v>24.52000000000039</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009008630006569707</v>
+        <v>1.597780191930909e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009008630006569707</v>
+        <v>1.597780191930909e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>32.01389032532017</v>
+        <v>45.69155670687598</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[4.630597624659458, 59.39718302598088]</t>
+          <t>[22.77244497364856, 68.6106684401034]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.02296048592395872</v>
+        <v>0.0002224049230525882</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02296048592395872</v>
+        <v>0.0002224049230525882</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8616580451287321</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.11950002085726918, 1.603816069400195]</t>
+          <t>[0.5597632555945786, 1.5912371198362703]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.02386894441817478</v>
+        <v>0.0001244302187473068</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02386894441817478</v>
+        <v>0.0001244302187473068</v>
       </c>
       <c r="T7" t="n">
-        <v>54.36578579933662</v>
+        <v>55.97185492226595</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[40.29702294896907, 68.43454864970417]</t>
+          <t>[43.74624228301425, 68.19746756151767]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>7.14435177684436e-10</v>
+        <v>6.192379942149273e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>7.14435177684436e-10</v>
+        <v>6.192379942149273e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>20.90716716716747</v>
+        <v>20.32288288288321</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.04516516516543</v>
+        <v>18.31023023023053</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.76916916916951</v>
+        <v>22.33553553553589</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.23000000000035</v>
+        <v>24.52000000000039</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0002653693160848958</v>
+        <v>0.01165381648974306</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002653693160848958</v>
+        <v>0.01165381648974306</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>41.1822332582238</v>
+        <v>28.39726448004613</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[16.170159790158227, 66.19430672628938]</t>
+          <t>[4.189713254372833, 52.60481570571942]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.001810790163578657</v>
+        <v>0.02252574814199959</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001810790163578657</v>
+        <v>0.02252574814199959</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9371317425122703</v>
+        <v>0.4339737599553466</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.3459211130078854, 1.5283423720166551]</t>
+          <t>[-0.6163685286322318, 1.484316048542925]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.002573447505408</v>
+        <v>0.4097050849228707</v>
       </c>
       <c r="S8" t="n">
-        <v>0.002573447505408</v>
+        <v>0.4097050849228707</v>
       </c>
       <c r="T8" t="n">
-        <v>67.13827381886485</v>
+        <v>56.79494643889687</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[53.98177874734583, 80.29476889038386]</t>
+          <t>[44.040521594256774, 69.54937128353697]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.187139358511558e-13</v>
+        <v>1.40281120053487e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>2.187139358511558e-13</v>
+        <v>1.40281120053487e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>20.61611611611642</v>
+        <v>22.82642642642679</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.33621621621649</v>
+        <v>18.72748748748779</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.89601601601635</v>
+        <v>26.9253653653658</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.23000000000035</v>
+        <v>24.52000000000039</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0004047687630552854</v>
+        <v>0.05638055937296926</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004047687630552854</v>
+        <v>0.05638055937296926</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>33.44068518376685</v>
+        <v>22.0568823721464</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[12.759159035884082, 54.12221133164961]</t>
+          <t>[-1.2422409205350533, 45.35600566482785]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.002146461606989281</v>
+        <v>0.06295425137482402</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002146461606989281</v>
+        <v>0.06295425137482402</v>
       </c>
       <c r="P9" t="n">
-        <v>1.062921238151502</v>
+        <v>1.163552834662887</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.4339737599553457, 1.691868716347659]</t>
+          <t>[-0.5346053564667317, 2.8617110257925047]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.00140607517553315</v>
+        <v>0.1743944326965632</v>
       </c>
       <c r="S9" t="n">
-        <v>0.00140607517553315</v>
+        <v>0.1743944326965632</v>
       </c>
       <c r="T9" t="n">
-        <v>48.51395080569432</v>
+        <v>53.36761423531528</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[37.4783110014698, 59.549590609918845]</t>
+          <t>[40.61898954316786, 66.1162389274627]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.037792157238982e-11</v>
+        <v>8.1915363381313e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.037792157238982e-11</v>
+        <v>8.1915363381313e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>20.13103103103132</v>
+        <v>19.97925925925958</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.70560560560585</v>
+        <v>13.35223223223244</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.55645645645679</v>
+        <v>26.60628628628671</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.23000000000035</v>
+        <v>24.52000000000039</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001020967364543379</v>
+        <v>0.01474003806262625</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001020967364543379</v>
+        <v>0.01474003806262625</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>45.47120948206446</v>
+        <v>29.94634513083474</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[20.47933237716137, 70.46308658696755]</t>
+          <t>[3.556863468298431, 56.335826793371055]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0006508436673857698</v>
+        <v>0.02704208195138902</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0006508436673857698</v>
+        <v>0.02704208195138902</v>
       </c>
       <c r="P10" t="n">
-        <v>1.226447582482503</v>
+        <v>0.9119738433844251</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.6226580034141929, 1.8302371615508122]</t>
+          <t>[-0.044026323473729256, 1.8679740102425795]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.0001754548376950993</v>
+        <v>0.06103546276066463</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0001754548376950993</v>
+        <v>0.06103546276066463</v>
       </c>
       <c r="T10" t="n">
-        <v>64.60298850019868</v>
+        <v>55.79350507935929</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[50.97665054805325, 78.22932645234411]</t>
+          <t>[41.790770037342455, 69.79624012137613]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.16338058578458e-12</v>
+        <v>3.168678652798462e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>2.16338058578458e-12</v>
+        <v>3.168678652798462e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>19.5004204204207</v>
+        <v>20.96104104104138</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.17201201201225</v>
+        <v>17.23027027027055</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.82882882882915</v>
+        <v>24.6918118118122</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.1800000000005</v>
+        <v>25.09000000000048</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04513466370845942</v>
+        <v>6.641140804508616e-06</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04513466370845942</v>
+        <v>6.641140804508616e-06</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>24.33306786160302</v>
+        <v>44.23454140997593</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.4995716567332593, 50.16570737993929]</t>
+          <t>[23.066834541766443, 65.40224827818541]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0642317817238871</v>
+        <v>0.0001210216210247861</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0642317817238871</v>
+        <v>0.0001210216210247861</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8490790955648082</v>
+        <v>0.6729738016698859</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.5660792207084264, 3.264237411838043]</t>
+          <t>[0.19497371824080822, 1.1509738850989635]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.4825453184543527</v>
+        <v>0.006828969098424675</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4825453184543527</v>
+        <v>0.006828969098424675</v>
       </c>
       <c r="T11" t="n">
-        <v>58.77196139168611</v>
+        <v>71.23826572258756</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[45.418570838037525, 72.12535194533469]</t>
+          <t>[60.14567812418128, 82.33085332099384]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.969757690289953e-11</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W11" t="n">
-        <v>1.969757690289953e-11</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X11" t="n">
-        <v>21.77729729729773</v>
+        <v>22.40268268268311</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.09849849849874</v>
+        <v>20.49393393393433</v>
       </c>
       <c r="Z11" t="n">
-        <v>31.45609609609672</v>
+        <v>24.3114314314319</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.1800000000005</v>
+        <v>25.09000000000048</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.769336475250128e-06</v>
+        <v>1.641003706043254e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>2.769336475250128e-06</v>
+        <v>1.641003706043254e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>56.48178497603995</v>
+        <v>44.48228919307245</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[31.79966830631868, 81.16390164576121]</t>
+          <t>[21.664584586199084, 67.29999379994582]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.339681765934799e-05</v>
+        <v>0.0002930441319561883</v>
       </c>
       <c r="O12" t="n">
-        <v>3.339681765934799e-05</v>
+        <v>0.0002930441319561883</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3081842643161155</v>
+        <v>0.6855527512338089</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.1823947686768852, 0.7987632973091161]</t>
+          <t>[0.19497371824080822, 1.1761317842268095]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2122871521102225</v>
+        <v>0.007219999848827596</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2122871521102225</v>
+        <v>0.007219999848827596</v>
       </c>
       <c r="T12" t="n">
-        <v>65.00389639114753</v>
+        <v>51.24120699946915</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[51.63323612119103, 78.37455666110404]</t>
+          <t>[39.50644647233668, 62.97596752660162]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.000532989792191e-12</v>
+        <v>2.474886962033906e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>1.000532989792191e-12</v>
+        <v>2.474886962033906e-11</v>
       </c>
       <c r="X12" t="n">
-        <v>23.94494494494542</v>
+        <v>22.35245245245288</v>
       </c>
       <c r="Y12" t="n">
-        <v>21.97893893893938</v>
+        <v>20.39347347347387</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.91095095095146</v>
+        <v>24.3114314314319</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.1800000000005</v>
+        <v>25.09000000000048</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.93582484004007e-06</v>
+        <v>0.001107250853658925</v>
       </c>
       <c r="I13" t="n">
-        <v>3.93582484004007e-06</v>
+        <v>0.001107250853658925</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>48.36522415765467</v>
+        <v>48.44704035316686</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[28.1817676709819, 68.54868064432743]</t>
+          <t>[17.484284191220866, 79.40979651511284]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.63621683848536e-05</v>
+        <v>0.002888366981105062</v>
       </c>
       <c r="O13" t="n">
-        <v>1.63621683848536e-05</v>
+        <v>0.002888366981105062</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2327105669325773</v>
+        <v>0.4591316590831935</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.25786846606042246, 0.7232895999255771]</t>
+          <t>[-0.2327105669325764, 1.1509738850989635]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.3444759875225731</v>
+        <v>0.1880616844244745</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3444759875225731</v>
+        <v>0.1880616844244745</v>
       </c>
       <c r="T13" t="n">
-        <v>59.22417503785997</v>
+        <v>70.72761926445961</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[47.57651565941276, 70.87183441630718]</t>
+          <t>[53.76638975969527, 87.68884876922394]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.453592884421596e-13</v>
+        <v>9.125922240116324e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>2.453592884421596e-13</v>
+        <v>9.125922240116324e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>24.24740740740788</v>
+        <v>23.25659659659704</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.28140140140184</v>
+        <v>20.49393393393433</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.21341341341392</v>
+        <v>26.01925925925975</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.1800000000005</v>
+        <v>25.09000000000048</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0005236368598398045</v>
+        <v>1.061146075009844e-06</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0005236368598398045</v>
+        <v>1.061146075009844e-06</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>38.30198246092455</v>
+        <v>48.50935803184785</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[16.27713389431971, 60.32683102752939]</t>
+          <t>[28.979604935436825, 68.03911112825887]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.001053398404956774</v>
+        <v>9.114639449858686e-06</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001053398404956774</v>
+        <v>9.114639449858686e-06</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2201316173686543</v>
+        <v>0.2830263651882703</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.4465527095192696, 0.8868159442565782]</t>
+          <t>[-0.1698158191129604, 0.735868549489501]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.5094228192159913</v>
+        <v>0.2145887045126027</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5094228192159913</v>
+        <v>0.2145887045126027</v>
       </c>
       <c r="T14" t="n">
-        <v>50.71088689626029</v>
+        <v>56.71089485742041</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[38.16017209624459, 63.261601696275996]</t>
+          <t>[45.747729459921835, 67.67406025491897]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.17303730565277e-10</v>
+        <v>1.4166445794217e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>2.17303730565277e-10</v>
+        <v>1.4166445794217e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>24.2978178178183</v>
+        <v>23.95981981982028</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.6260660660665</v>
+        <v>22.15153153153196</v>
       </c>
       <c r="Z14" t="n">
-        <v>26.9695695695701</v>
+        <v>25.7681081081086</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.1800000000005</v>
+        <v>25.09000000000048</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.009205599157962818</v>
+        <v>0.0005798783771338023</v>
       </c>
       <c r="I15" t="n">
-        <v>0.009205599157962818</v>
+        <v>0.0005798783771338023</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>30.16914997893289</v>
+        <v>39.7181336704427</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[4.878158293731211, 55.46014166413456]</t>
+          <t>[15.375929083294139, 64.06033825759125]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.02046617845684873</v>
+        <v>0.001972513600176251</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02046617845684873</v>
+        <v>0.001972513600176251</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.5660527303765388</v>
+        <v>-0.3522105877898465</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.3585265529036947, 0.22642109215061712]</t>
+          <t>[-1.0188949146777713, 0.3144737390980783]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.1571703899834827</v>
+        <v>0.2929805326768373</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1571703899834827</v>
+        <v>0.2929805326768373</v>
       </c>
       <c r="T15" t="n">
-        <v>50.45182856651245</v>
+        <v>52.32212132228052</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[37.13662474033805, 63.76703239268684]</t>
+          <t>[38.997806368740086, 65.64643627582095]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.191386100884984e-09</v>
+        <v>4.677478404602198e-10</v>
       </c>
       <c r="W15" t="n">
-        <v>1.191386100884984e-09</v>
+        <v>4.677478404602198e-10</v>
       </c>
       <c r="X15" t="n">
-        <v>2.268468468468509</v>
+        <v>1.40644644644647</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.9073873873874132</v>
+        <v>-1.255755755755787</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.44432432432443</v>
+        <v>4.068648648648726</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.1800000000005</v>
+        <v>25.09000000000048</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.605623809242118e-06</v>
+        <v>2.262368670458148e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>1.605623809242118e-06</v>
+        <v>2.262368670458148e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>44.50680567457793</v>
+        <v>44.92991963221947</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[23.532002531997676, 65.48160881715819]</t>
+          <t>[21.94528042995202, 67.91455883448693]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>9.848045063320932e-05</v>
+        <v>0.0002835038631519016</v>
       </c>
       <c r="O16" t="n">
-        <v>9.848045063320932e-05</v>
+        <v>0.0002835038631519016</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.8427896207828471</v>
+        <v>-0.5912106295043857</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.2830528555201557, -0.4025263860455386]</t>
+          <t>[-1.1195265111891555, -0.06289474781961601]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.0003644618447962156</v>
+        <v>0.02912125385964925</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0003644618447962156</v>
+        <v>0.02912125385964925</v>
       </c>
       <c r="T16" t="n">
-        <v>57.1964224644818</v>
+        <v>56.24457908803164</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[46.56054048836294, 67.83230444060067]</t>
+          <t>[44.019817558922384, 68.46934061714089]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>4.019007349143067e-14</v>
+        <v>5.346167952779979e-12</v>
       </c>
       <c r="W16" t="n">
-        <v>4.019007349143067e-14</v>
+        <v>5.346167952779979e-12</v>
       </c>
       <c r="X16" t="n">
-        <v>3.377497497497561</v>
+        <v>2.360820820820866</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.613133133133161</v>
+        <v>0.251151151151157</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.141861861861962</v>
+        <v>4.470490490490574</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_5_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_5_sine_01_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.52000000000039</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003271645639655651</v>
+        <v>0.07970288320873764</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003271645639655651</v>
+        <v>0.07970288320873764</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>33.91096624637186</v>
+        <v>19.63697523560605</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[9.609046072250592, 58.21288642049312]</t>
+          <t>[-1.8770652551655829, 41.151015726377686]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.007298385146067288</v>
+        <v>0.0726127862828867</v>
       </c>
       <c r="O2" t="n">
-        <v>0.007298385146067288</v>
+        <v>0.0726127862828867</v>
       </c>
       <c r="P2" t="n">
-        <v>1.930868758062195</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1258159859711174, 2.7359215301532736]</t>
+          <t>[-0.10692107129334705, 2.962342622303889]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.612908213211028e-05</v>
+        <v>0.06746352099209973</v>
       </c>
       <c r="S2" t="n">
-        <v>1.612908213211028e-05</v>
+        <v>0.06746352099209973</v>
       </c>
       <c r="T2" t="n">
-        <v>60.8340263767934</v>
+        <v>55.69255377564453</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.33241723379291, 74.33563551979388]</t>
+          <t>[43.60303221355227, 67.7820753377368]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>9.934719713555751e-12</v>
+        <v>5.148548254396701e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>9.934719713555751e-12</v>
+        <v>5.148548254396701e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>16.9848248248251</v>
+        <v>18.56972972972998</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.84312312312334</v>
+        <v>12.70054054054071</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.12652652652685</v>
+        <v>24.43891891891925</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.52000000000039</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0829769936535627</v>
+        <v>0.0001015272553773761</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0829769936535627</v>
+        <v>0.0001015272553773761</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>22.46019990409045</v>
+        <v>40.86771106472244</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.5524000874657204, 47.472799895646624]</t>
+          <t>[19.703001311766194, 62.03242081767869]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.07720176756502761</v>
+        <v>0.0003287791221215919</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07720176756502761</v>
+        <v>0.0003287791221215919</v>
       </c>
       <c r="P3" t="n">
-        <v>1.213868632918579</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-0.5220264069028087, 2.949763672739966]</t>
+          <t>[0.8113422468730391, 1.9686056067539646]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.1658807867106151</v>
+        <v>1.573302657131848e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1658807867106151</v>
+        <v>1.573302657131848e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>51.3528062060455</v>
+        <v>58.8043991741042</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[37.34005982141889, 65.36555259067211]</t>
+          <t>[46.586450629311116, 71.0223477188973]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.782642338772234e-09</v>
+        <v>1.365130231079092e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>2.782642338772234e-09</v>
+        <v>1.365130231079092e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>19.78290290290322</v>
+        <v>18.7140540540543</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.00860860860882</v>
+        <v>16.5010810810813</v>
       </c>
       <c r="Z3" t="n">
-        <v>26.55719719719762</v>
+        <v>20.9270270270273</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.52000000000039</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007220354159166442</v>
+        <v>0.002084425855012784</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0007220354159166442</v>
+        <v>0.002084425855012784</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>36.14973373100764</v>
+        <v>32.76502666540216</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[14.941614835753278, 57.35785262626201]</t>
+          <t>[12.36527704183375, 53.16477628897057]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.001291324745615219</v>
+        <v>0.002283030172591349</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001291324745615219</v>
+        <v>0.002283030172591349</v>
       </c>
       <c r="P4" t="n">
-        <v>1.654131867655887</v>
+        <v>1.452868674633118</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.9245527929483481, 2.383710942363426]</t>
+          <t>[0.6352369529781168, 2.270500396288119]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.83627502835715e-05</v>
+        <v>0.0008405728002074397</v>
       </c>
       <c r="S4" t="n">
-        <v>3.83627502835715e-05</v>
+        <v>0.0008405728002074397</v>
       </c>
       <c r="T4" t="n">
-        <v>50.22219111741292</v>
+        <v>45.77827888837972</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[37.636941224094684, 62.807441010731154]</t>
+          <t>[33.396389487277744, 58.1601682894817]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.041229490463593e-10</v>
+        <v>2.228700113349191e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>3.041229490463593e-10</v>
+        <v>2.228700113349191e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>18.06478478478508</v>
+        <v>18.47351351351376</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.21761761761787</v>
+        <v>15.34648648648669</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.91195195195229</v>
+        <v>21.60054054054083</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.52000000000039</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001440589171056716</v>
+        <v>0.001841106263159809</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001440589171056716</v>
+        <v>0.001841106263159809</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>32.82819478054456</v>
+        <v>35.69540571695451</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[16.369033609963687, 49.28735595112543]</t>
+          <t>[11.110104281854866, 60.280707152054156]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0002211195203800642</v>
+        <v>0.005389630079722041</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0002211195203800642</v>
+        <v>0.005389630079722041</v>
       </c>
       <c r="P5" t="n">
-        <v>1.490605523324888</v>
+        <v>1.239026532046426</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.8616580451287321, 2.1195530015210435]</t>
+          <t>[0.4842895582110396, 1.9937635058818115]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.948270263896212e-05</v>
+        <v>0.001861975753918665</v>
       </c>
       <c r="S5" t="n">
-        <v>1.948270263896212e-05</v>
+        <v>0.001861975753918665</v>
       </c>
       <c r="T5" t="n">
-        <v>48.69313292406821</v>
+        <v>49.55890557059669</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[38.54950342509153, 58.83676242304489]</t>
+          <t>[36.234986227477314, 62.88282491371606]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.479261158010559e-12</v>
+        <v>1.913277758447407e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>1.479261158010559e-12</v>
+        <v>1.913277758447407e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>18.70294294294324</v>
+        <v>19.2913513513516</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.24848848848874</v>
+        <v>16.40486486486508</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.15739739739774</v>
+        <v>22.17783783783813</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.52000000000039</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001557963716543709</v>
+        <v>1.863817264990963e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001557963716543709</v>
+        <v>1.863817264990963e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>35.28436565853604</v>
+        <v>49.02314514363012</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[14.06973969464137, 56.49899162243071]</t>
+          <t>[25.241881439213845, 72.8044088480464]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.001643691198952579</v>
+        <v>0.0001449236562545142</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001643691198952579</v>
+        <v>0.0001449236562545142</v>
       </c>
       <c r="P6" t="n">
-        <v>1.540921321580579</v>
+        <v>1.100658086843271</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.710710650361654, 2.371131992799504]</t>
+          <t>[0.5597632555945786, 1.6415529180919641]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0005210500469976509</v>
+        <v>0.0001714702260944279</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0005210500469976509</v>
+        <v>0.0001714702260944279</v>
       </c>
       <c r="T6" t="n">
-        <v>59.82908788516779</v>
+        <v>65.90681354988203</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.70691344009893, 72.95126233023666]</t>
+          <t>[52.72242491753809, 79.09120218222597]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.000178214866537e-12</v>
+        <v>4.201083925181592e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>7.000178214866537e-12</v>
+        <v>4.201083925181592e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>18.50658658658688</v>
+        <v>19.8205405405408</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.26670670670695</v>
+        <v>17.75189189189213</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.74646646646682</v>
+        <v>21.88918918918948</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.52000000000039</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.597780191930909e-05</v>
+        <v>4.150743513575694e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>1.597780191930909e-05</v>
+        <v>4.150743513575694e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>45.69155670687598</v>
+        <v>51.2911610885171</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[22.77244497364856, 68.6106684401034]</t>
+          <t>[23.89226262984934, 78.69005954718486]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0002224049230525882</v>
+        <v>0.0004726516711486273</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0002224049230525882</v>
+        <v>0.0004726516711486273</v>
       </c>
       <c r="P7" t="n">
-        <v>1.075500187715424</v>
+        <v>0.9497106920761942</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.5597632555945786, 1.5912371198362703]</t>
+          <t>[0.4465527095192705, 1.4528686746331179]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0001244302187473068</v>
+        <v>0.0004298404449838422</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0001244302187473068</v>
+        <v>0.0004298404449838422</v>
       </c>
       <c r="T7" t="n">
-        <v>55.97185492226595</v>
+        <v>58.91565071961588</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.74624228301425, 68.19746756151767]</t>
+          <t>[44.439257475200684, 73.39204396403107]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.192379942149273e-12</v>
+        <v>1.78473902323617e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>6.192379942149273e-12</v>
+        <v>1.78473902323617e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>20.32288288288321</v>
+        <v>20.3978378378381</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.31023023023053</v>
+        <v>18.47351351351375</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.33553553553589</v>
+        <v>22.32216216216245</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.52000000000039</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01165381648974306</v>
+        <v>0.001820263634865205</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01165381648974306</v>
+        <v>0.001820263634865205</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>28.39726448004613</v>
+        <v>33.06346610910996</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[4.189713254372833, 52.60481570571942]</t>
+          <t>[10.380982541079028, 55.74594967714089]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.02252574814199959</v>
+        <v>0.005223581034596192</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02252574814199959</v>
+        <v>0.005223581034596192</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4339737599553466</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.6163685286322318, 1.484316048542925]</t>
+          <t>[0.42139481039142357, 1.8805529598065034]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.4097050849228707</v>
+        <v>0.002685457610847708</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4097050849228707</v>
+        <v>0.002685457610847708</v>
       </c>
       <c r="T8" t="n">
-        <v>56.79494643889687</v>
+        <v>59.35296828610338</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.040521594256774, 69.54937128353697]</t>
+          <t>[47.01694408787131, 71.68899248433544]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.40281120053487e-11</v>
+        <v>1.379119041189369e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>1.40281120053487e-11</v>
+        <v>1.379119041189369e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>22.82642642642679</v>
+        <v>19.62810810810836</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.72748748748779</v>
+        <v>16.83783783783806</v>
       </c>
       <c r="Z8" t="n">
-        <v>26.9253653653658</v>
+        <v>22.41837837837867</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.52000000000039</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05638055937296926</v>
+        <v>0.001483989821532194</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05638055937296926</v>
+        <v>0.001483989821532194</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>22.0568823721464</v>
+        <v>40.80714341073761</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.2422409205350533, 45.35600566482785]</t>
+          <t>[14.783392638875256, 66.83089418259996]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.06295425137482402</v>
+        <v>0.00283375260983787</v>
       </c>
       <c r="O9" t="n">
-        <v>0.06295425137482402</v>
+        <v>0.00283375260983787</v>
       </c>
       <c r="P9" t="n">
-        <v>1.163552834662887</v>
+        <v>1.704447665911579</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.5346053564667317, 2.8617110257925047]</t>
+          <t>[0.9245527929483472, 2.4843425388748113]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1743944326965632</v>
+        <v>6.535944452346065e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1743944326965632</v>
+        <v>6.535944452346065e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>53.36761423531528</v>
+        <v>60.10066234276647</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[40.61898954316786, 66.1162389274627]</t>
+          <t>[45.140503203128915, 75.06082148240402]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>8.1915363381313e-11</v>
+        <v>2.538422805287155e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>8.1915363381313e-11</v>
+        <v>2.538422805287155e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>19.97925925925958</v>
+        <v>17.51135135135159</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.35223223223244</v>
+        <v>14.52864864864884</v>
       </c>
       <c r="Z9" t="n">
-        <v>26.60628628628671</v>
+        <v>20.49405405405433</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.52000000000039</v>
+        <v>24.03000000000032</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01474003806262625</v>
+        <v>3.271309116292809e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01474003806262625</v>
+        <v>3.271309116292809e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>29.94634513083474</v>
+        <v>39.77997128599079</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[3.556863468298431, 56.335826793371055]</t>
+          <t>[19.576947736795297, 59.98299483518628]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.02704208195138902</v>
+        <v>0.0002594236042583464</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02704208195138902</v>
+        <v>0.0002594236042583464</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9119738433844251</v>
+        <v>1.276763380738195</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.044026323473729256, 1.8679740102425795]</t>
+          <t>[0.7232895999255788, 1.8302371615508104]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.06103546276066463</v>
+        <v>2.958028739530327e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>0.06103546276066463</v>
+        <v>2.958028739530327e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>55.79350507935929</v>
+        <v>55.28872480616945</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[41.790770037342455, 69.79624012137613]</t>
+          <t>[44.230904512828104, 66.34654509951079]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.168678652798462e-10</v>
+        <v>4.172218126541338e-13</v>
       </c>
       <c r="W10" t="n">
-        <v>3.168678652798462e-10</v>
+        <v>4.172218126541338e-13</v>
       </c>
       <c r="X10" t="n">
-        <v>20.96104104104138</v>
+        <v>19.14702702702728</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.23027027027055</v>
+        <v>17.0302702702705</v>
       </c>
       <c r="Z10" t="n">
-        <v>24.6918118118122</v>
+        <v>21.26378378378406</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.09000000000048</v>
+        <v>24.76000000000043</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>6.641140804508616e-06</v>
+        <v>0.0004720676825932246</v>
       </c>
       <c r="I11" t="n">
-        <v>6.641140804508616e-06</v>
+        <v>0.0004720676825932246</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>44.23454140997593</v>
+        <v>43.93599157708179</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[23.066834541766443, 65.40224827818541]</t>
+          <t>[16.2131200397651, 71.65886311439849]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0001210216210247861</v>
+        <v>0.002577509538864486</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0001210216210247861</v>
+        <v>0.002577509538864486</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6729738016698859</v>
+        <v>0.5346053564667317</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.19497371824080822, 1.1509738850989635]</t>
+          <t>[-0.10692107129334527, 1.1761317842268086]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.006828969098424675</v>
+        <v>0.1001977283572191</v>
       </c>
       <c r="S11" t="n">
-        <v>0.006828969098424675</v>
+        <v>0.1001977283572191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.23826572258756</v>
+        <v>66.50007961433374</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[60.14567812418128, 82.33085332099384]</t>
+          <t>[52.02217574725208, 80.97798348141541]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>5.618616683022992e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>5.618616683022992e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>22.40268268268311</v>
+        <v>22.65329329329369</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.49393393393433</v>
+        <v>20.1252452452456</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.3114314314319</v>
+        <v>25.18134134134177</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.09000000000048</v>
+        <v>24.76000000000043</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.641003706043254e-05</v>
+        <v>8.083519474977319e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>1.641003706043254e-05</v>
+        <v>8.083519474977319e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>44.48228919307245</v>
+        <v>46.34642966916272</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[21.664584586199084, 67.29999379994582]</t>
+          <t>[21.626217290642572, 71.06664204768288]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0002930441319561883</v>
+        <v>0.0004645490604138214</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0002930441319561883</v>
+        <v>0.0004645490604138214</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6855527512338089</v>
+        <v>0.4465527095192705</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.19497371824080822, 1.1761317842268095]</t>
+          <t>[-0.11950002085726741, 1.0126054398958084]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.007219999848827596</v>
+        <v>0.1190842919003583</v>
       </c>
       <c r="S12" t="n">
-        <v>0.007219999848827596</v>
+        <v>0.1190842919003583</v>
       </c>
       <c r="T12" t="n">
-        <v>51.24120699946915</v>
+        <v>60.84412575352025</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[39.50644647233668, 62.97596752660162]</t>
+          <t>[47.39208206445713, 74.29616944258336]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.474886962033906e-11</v>
+        <v>8.870681966755001e-12</v>
       </c>
       <c r="W12" t="n">
-        <v>2.474886962033906e-11</v>
+        <v>8.870681966755001e-12</v>
       </c>
       <c r="X12" t="n">
-        <v>22.35245245245288</v>
+        <v>23.00028028028068</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.39347347347387</v>
+        <v>20.76964964965001</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.3114314314319</v>
+        <v>25.23091091091134</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.09000000000048</v>
+        <v>24.76000000000043</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001107250853658925</v>
+        <v>0.0003549514325269509</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001107250853658925</v>
+        <v>0.0003549514325269509</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>48.44704035316686</v>
+        <v>36.31982188137168</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[17.484284191220866, 79.40979651511284]</t>
+          <t>[16.260447043603357, 56.379196719140005]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.002888366981105062</v>
+        <v>0.0006864798068297873</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002888366981105062</v>
+        <v>0.0006864798068297873</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4591316590831935</v>
+        <v>-0.1509473947670772</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.2327105669325764, 1.1509738850989635]</t>
+          <t>[-0.798763297309117, 0.4968685077749626]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1880616844244745</v>
+        <v>0.6411171934590953</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1880616844244745</v>
+        <v>0.6411171934590953</v>
       </c>
       <c r="T13" t="n">
-        <v>70.72761926445961</v>
+        <v>57.03304366145443</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[53.76638975969527, 87.68884876922394]</t>
+          <t>[45.34314017768891, 68.72294714521995]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9.125922240116324e-11</v>
+        <v>8.972822485020515e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>9.125922240116324e-11</v>
+        <v>8.972822485020515e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>23.25659659659704</v>
+        <v>0.5948348348348453</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.49393393393433</v>
+        <v>-1.957997997998034</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.01925925925975</v>
+        <v>3.147667667667724</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.09000000000048</v>
+        <v>24.76000000000043</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.061146075009844e-06</v>
+        <v>3.267779770110835e-07</v>
       </c>
       <c r="I14" t="n">
-        <v>1.061146075009844e-06</v>
+        <v>3.267779770110835e-07</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>48.50935803184785</v>
+        <v>51.44050614539135</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[28.979604935436825, 68.03911112825887]</t>
+          <t>[33.46125146098592, 69.41976082979677]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>9.114639449858686e-06</v>
+        <v>7.021279146979253e-07</v>
       </c>
       <c r="O14" t="n">
-        <v>9.114639449858686e-06</v>
+        <v>7.021279146979253e-07</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2830263651882703</v>
+        <v>0.1572368695490383</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.1698158191129604, 0.735868549489501]</t>
+          <t>[-0.27044741562434726, 0.5849211547224238]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.2145887045126027</v>
+        <v>0.4628555707213229</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2145887045126027</v>
+        <v>0.4628555707213229</v>
       </c>
       <c r="T14" t="n">
-        <v>56.71089485742041</v>
+        <v>59.8150605037335</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[45.747729459921835, 67.67406025491897]</t>
+          <t>[48.74731407926839, 70.8828069281986]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.4166445794217e-13</v>
+        <v>3.419486915845482e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4166445794217e-13</v>
+        <v>3.419486915845482e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>23.95981981982028</v>
+        <v>24.1403803803808</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.15153153153196</v>
+        <v>22.45501501501541</v>
       </c>
       <c r="Z14" t="n">
-        <v>25.7681081081086</v>
+        <v>25.8257457457462</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.09000000000048</v>
+        <v>24.76000000000043</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0005798783771338023</v>
+        <v>0.0003343945957369199</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0005798783771338023</v>
+        <v>0.0003343945957369199</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>39.7181336704427</v>
+        <v>35.87397058868365</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[15.375929083294139, 64.06033825759125]</t>
+          <t>[15.008785981873963, 56.73915519549333]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.001972513600176251</v>
+        <v>0.001183616140677968</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001972513600176251</v>
+        <v>0.001183616140677968</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.3522105877898465</v>
+        <v>-0.3396316382259235</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.0188949146777713, 0.3144737390980783]</t>
+          <t>[-1.0188949146777713, 0.33963163822592435]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.2929805326768373</v>
+        <v>0.3192945136149057</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2929805326768373</v>
+        <v>0.3192945136149057</v>
       </c>
       <c r="T15" t="n">
-        <v>52.32212132228052</v>
+        <v>51.99727462023203</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[38.997806368740086, 65.64643627582095]</t>
+          <t>[40.45761195001403, 63.53693729045004]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.677478404602198e-10</v>
+        <v>9.916956145161748e-12</v>
       </c>
       <c r="W15" t="n">
-        <v>4.677478404602198e-10</v>
+        <v>9.916956145161748e-12</v>
       </c>
       <c r="X15" t="n">
-        <v>1.40644644644647</v>
+        <v>1.338378378378401</v>
       </c>
       <c r="Y15" t="n">
-        <v>-1.255755755755787</v>
+        <v>-1.338378378378405</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.068648648648726</v>
+        <v>4.015135135135207</v>
       </c>
     </row>
     <row r="16">
@@ -1769,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.09000000000048</v>
+        <v>24.76000000000043</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.262368670458148e-05</v>
+        <v>0.0002764910273223009</v>
       </c>
       <c r="I16" t="n">
-        <v>2.262368670458148e-05</v>
+        <v>0.0002764910273223009</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>44.92991963221947</v>
+        <v>40.03755652597036</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[21.94528042995202, 67.91455883448693]</t>
+          <t>[17.7199387132176, 62.35517433872312]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.0002835038631519016</v>
+        <v>0.0007587864454841053</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0002835038631519016</v>
+        <v>0.0007587864454841053</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.5912106295043857</v>
+        <v>-0.3396316382259235</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.1195265111891555, -0.06289474781961601]</t>
+          <t>[-0.9685791164220783, 0.28931583997023136]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.02912125385964925</v>
+        <v>0.2825559291063511</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02912125385964925</v>
+        <v>0.2825559291063511</v>
       </c>
       <c r="T16" t="n">
-        <v>56.24457908803164</v>
+        <v>61.57352168586411</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[44.019817558922384, 68.46934061714089]</t>
+          <t>[48.85794418114486, 74.28909919058336]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>5.346167952779979e-12</v>
+        <v>1.13153930669796e-12</v>
       </c>
       <c r="W16" t="n">
-        <v>5.346167952779979e-12</v>
+        <v>1.13153930669796e-12</v>
       </c>
       <c r="X16" t="n">
-        <v>2.360820820820866</v>
+        <v>1.338378378378401</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.251151151151157</v>
+        <v>-1.140100100100121</v>
       </c>
       <c r="Z16" t="n">
-        <v>4.470490490490574</v>
+        <v>3.816856856856923</v>
       </c>
     </row>
   </sheetData>
